--- a/doc/praes/resultate_praes.xlsx
+++ b/doc/praes/resultate_praes.xlsx
@@ -304,8 +304,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="253346728"/>
-        <c:axId val="253347512"/>
+        <c:axId val="263733752"/>
+        <c:axId val="263731008"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -384,11 +384,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="253347904"/>
-        <c:axId val="253350256"/>
+        <c:axId val="263734536"/>
+        <c:axId val="263732968"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="253346728"/>
+        <c:axId val="263733752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -431,7 +431,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="253347512"/>
+        <c:crossAx val="263731008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -439,7 +439,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="253347512"/>
+        <c:axId val="263731008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -546,13 +546,13 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="253346728"/>
+        <c:crossAx val="263733752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="100"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="253350256"/>
+        <c:axId val="263732968"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -645,12 +645,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="253347904"/>
+        <c:crossAx val="263734536"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="253347904"/>
+        <c:axId val="263734536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -659,7 +659,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="253350256"/>
+        <c:crossAx val="263732968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -886,8 +886,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="253346336"/>
-        <c:axId val="253348296"/>
+        <c:axId val="263729440"/>
+        <c:axId val="263731400"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -907,7 +907,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="31750" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent6">
                   <a:lumMod val="75000"/>
@@ -963,11 +963,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="253351432"/>
-        <c:axId val="253349080"/>
+        <c:axId val="263729832"/>
+        <c:axId val="263733360"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="253346336"/>
+        <c:axId val="263729440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1010,7 +1010,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="253348296"/>
+        <c:crossAx val="263731400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1018,9 +1018,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="253348296"/>
+        <c:axId val="263731400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="250"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1125,12 +1126,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="253346336"/>
+        <c:crossAx val="263729440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="253349080"/>
+        <c:axId val="263733360"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:min val="0"/>
@@ -1224,12 +1225,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="253351432"/>
+        <c:crossAx val="263729832"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="253351432"/>
+        <c:axId val="263729832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1238,7 +1239,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="253349080"/>
+        <c:crossAx val="263733360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1475,8 +1476,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="253349864"/>
-        <c:axId val="253350648"/>
+        <c:axId val="263731792"/>
+        <c:axId val="263730224"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1525,6 +1526,40 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:ln w="53975">
+                  <a:solidFill>
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="31750" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
           <c:val>
             <c:numRef>
               <c:f>(Tabelle1!$F$17,Tabelle1!$F$19)</c:f>
@@ -1557,7 +1592,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="38100" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -1596,11 +1631,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="253351824"/>
-        <c:axId val="253351040"/>
+        <c:axId val="263727872"/>
+        <c:axId val="263732184"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="253349864"/>
+        <c:axId val="263731792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1643,7 +1678,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="253350648"/>
+        <c:crossAx val="263730224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1651,9 +1686,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="253350648"/>
+        <c:axId val="263730224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="250"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1759,12 +1795,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="253349864"/>
+        <c:crossAx val="263731792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="253351040"/>
+        <c:axId val="263732184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="150"/>
@@ -1859,12 +1895,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="253351824"/>
+        <c:crossAx val="263727872"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="253351824"/>
+        <c:axId val="263727872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1873,7 +1909,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="253351040"/>
+        <c:crossAx val="263732184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2120,8 +2156,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="345370224"/>
-        <c:axId val="345369048"/>
+        <c:axId val="364329104"/>
+        <c:axId val="364332240"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2141,7 +2177,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="31750" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent6">
                   <a:lumMod val="75000"/>
@@ -2205,7 +2241,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="38100" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -2247,11 +2283,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="345372968"/>
-        <c:axId val="345372576"/>
+        <c:axId val="364327536"/>
+        <c:axId val="364328712"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="345370224"/>
+        <c:axId val="364329104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2294,7 +2330,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="345369048"/>
+        <c:crossAx val="364332240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2302,9 +2338,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="345369048"/>
+        <c:axId val="364332240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="250"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -2410,12 +2447,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="345370224"/>
+        <c:crossAx val="364329104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="345372576"/>
+        <c:axId val="364328712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="150"/>
@@ -2510,12 +2547,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="345372968"/>
+        <c:crossAx val="364327536"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="345372968"/>
+        <c:axId val="364327536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2524,7 +2561,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="345372576"/>
+        <c:crossAx val="364328712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2761,8 +2798,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="345368264"/>
-        <c:axId val="345375712"/>
+        <c:axId val="364326752"/>
+        <c:axId val="364329496"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2782,7 +2819,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="31750" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent6">
                   <a:lumMod val="75000"/>
@@ -2841,11 +2878,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="345371400"/>
-        <c:axId val="345374144"/>
+        <c:axId val="364324792"/>
+        <c:axId val="364329888"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="345368264"/>
+        <c:axId val="364326752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2888,7 +2925,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="345375712"/>
+        <c:crossAx val="364329496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2896,9 +2933,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="345375712"/>
+        <c:axId val="364329496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="250"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -3004,12 +3042,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="345368264"/>
+        <c:crossAx val="364326752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="345374144"/>
+        <c:axId val="364329888"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -3102,12 +3140,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="345371400"/>
+        <c:crossAx val="364324792"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="345371400"/>
+        <c:axId val="364324792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3116,7 +3154,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="345374144"/>
+        <c:crossAx val="364329888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3286,11 +3324,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="345371792"/>
-        <c:axId val="345374928"/>
+        <c:axId val="364331064"/>
+        <c:axId val="364325184"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="345371792"/>
+        <c:axId val="364331064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3333,7 +3371,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="345374928"/>
+        <c:crossAx val="364325184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3341,7 +3379,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="345374928"/>
+        <c:axId val="364325184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3387,7 +3425,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3448,7 +3485,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="345371792"/>
+        <c:crossAx val="364331064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7242,8 +7279,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J113" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView tabSelected="1" topLeftCell="M107" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="W56" sqref="W56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
